--- a/crawler/contentxls/content yy q.xlsx
+++ b/crawler/contentxls/content yy q.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\minibondforstaging\crawler\contentxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spike\Django\minibondforstaging\crawler\contentxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{255EA98A-2348-4F5E-B06B-E96F3BBB57B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +19,15 @@
     <sheet name="Sheet6" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$C$24</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="685">
   <si>
     <t>title</t>
   </si>
@@ -2122,26 +2121,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目光坚定：我是上市公司亿阳信通一名普通员工，现检举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亿阳集团公告称，无法支付2017年度审计费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>811上岸了，“债权人”微信公众号发的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华融 啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2208,7 +2199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2283,23 +2274,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2335,23 +2309,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2527,11 +2484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2569,100 +2526,100 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>42</v>
       </c>
       <c r="J2" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>681</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>681</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>42</v>
       </c>
       <c r="J3" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>588</v>
       </c>
       <c r="B4" t="s">
-        <v>686</v>
+        <v>588</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>42</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>589</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>589</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>42</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>42</v>
@@ -2674,76 +2631,76 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>591</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>591</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>42</v>
       </c>
       <c r="J7" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>592</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>592</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>42</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>42</v>
       </c>
       <c r="J9" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>679</v>
+        <v>594</v>
       </c>
       <c r="B10" t="s">
-        <v>679</v>
+        <v>594</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -2753,210 +2710,210 @@
       </c>
       <c r="J10" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="B11" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>42</v>
       </c>
       <c r="J11" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="B12" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>42</v>
       </c>
       <c r="J12" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>42</v>
       </c>
       <c r="J13" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="B14" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G14">
         <v>42</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="B15" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>42</v>
       </c>
       <c r="J15" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="B16" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>42</v>
       </c>
       <c r="J16" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>544</v>
+        <v>683</v>
       </c>
       <c r="B17" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>42</v>
       </c>
       <c r="J17" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
+        <v>ptlez123</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="B18" t="s">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <v>42</v>
       </c>
       <c r="J18" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="B19" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>42</v>
       </c>
       <c r="J19" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="B20" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>42</v>
@@ -2968,1357 +2925,1357 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="B21" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>42</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="B22" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>42</v>
       </c>
       <c r="J22" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="B23" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>42</v>
       </c>
       <c r="J23" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="B24" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G24">
         <v>42</v>
       </c>
       <c r="J24" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="B25" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>42</v>
       </c>
       <c r="J25" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="B26" t="s">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G26">
         <v>42</v>
       </c>
       <c r="J26" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>554</v>
+        <v>611</v>
       </c>
       <c r="B27" t="s">
-        <v>554</v>
+        <v>611</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G27">
         <v>42</v>
       </c>
       <c r="J27" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
       <c r="B28" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>42</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="B29" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G29">
         <v>42</v>
       </c>
       <c r="J29" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="B30" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>42</v>
       </c>
       <c r="J30" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="B31" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>42</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="B32" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>42</v>
       </c>
       <c r="J32" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>680</v>
+        <v>617</v>
       </c>
       <c r="B33" t="s">
-        <v>680</v>
+        <v>617</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G33">
         <v>42</v>
       </c>
       <c r="J33" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>683</v>
+        <v>618</v>
       </c>
       <c r="B34" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>42</v>
       </c>
       <c r="J34" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="B35" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G35">
         <v>42</v>
       </c>
       <c r="J35" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>隐身守侯</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="B36" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G36">
         <v>42</v>
       </c>
       <c r="J36" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="B37" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>42</v>
       </c>
       <c r="J37" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="B38" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>42</v>
       </c>
       <c r="J38" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="B39" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>42</v>
       </c>
       <c r="J39" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="B40" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>42</v>
       </c>
       <c r="J40" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="B41" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>42</v>
       </c>
       <c r="J41" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
+        <v>Charleswab</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="B42" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G42">
         <v>42</v>
       </c>
       <c r="J42" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="B43" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G43">
         <v>42</v>
       </c>
       <c r="J43" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>RichardTek</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="B44" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44">
         <v>42</v>
       </c>
       <c r="J44" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="B45" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>42</v>
       </c>
       <c r="J45" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="B46" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>42</v>
       </c>
       <c r="J46" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="B47" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>42</v>
       </c>
       <c r="J47" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>wbklk</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="B48" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G48">
         <v>42</v>
       </c>
       <c r="J48" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>冬如</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="B49" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G49">
         <v>42</v>
       </c>
       <c r="J49" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>els164</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="B50" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>42</v>
       </c>
       <c r="J50" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="B51" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>42</v>
       </c>
       <c r="J51" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>upr200</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="B52" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>42</v>
       </c>
       <c r="J52" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="B53" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>42</v>
       </c>
       <c r="J53" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>jheic</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="B54" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G54">
         <v>42</v>
       </c>
       <c r="J54" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
+        <v>p0Tiv9Yam8</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="B55" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>42</v>
       </c>
       <c r="J55" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>q4ikh5mv</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="B56" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G56">
         <v>42</v>
       </c>
       <c r="J56" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="B57" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G57">
         <v>42</v>
       </c>
       <c r="J57" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="B58" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G58">
         <v>42</v>
       </c>
       <c r="J58" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="B59" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G59">
         <v>42</v>
       </c>
       <c r="J59" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>Abrahamerymn</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="B60" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G60">
         <v>42</v>
       </c>
       <c r="J60" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>cwuha</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="B61" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G61">
         <v>42</v>
       </c>
       <c r="J61" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="B62" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>42</v>
       </c>
       <c r="J62" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>i8Tix8Yah8</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="B63" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G63">
         <v>42</v>
       </c>
       <c r="J63" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>JameseNrof</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="B64" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G64">
         <v>42</v>
       </c>
       <c r="J64" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="B65" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G65">
         <v>42</v>
       </c>
       <c r="J65" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>cwuha</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="B66" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G66">
         <v>42</v>
       </c>
       <c r="J66" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="B67" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G67">
         <v>42</v>
       </c>
       <c r="J67" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="B68" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G68">
         <v>42</v>
       </c>
       <c r="J68" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="B69" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G69">
         <v>42</v>
       </c>
       <c r="J69" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
+        <v>hnvkg</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>595</v>
+        <v>652</v>
       </c>
       <c r="B70" t="s">
-        <v>595</v>
+        <v>652</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G70">
         <v>42</v>
       </c>
       <c r="J70" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>596</v>
+        <v>653</v>
       </c>
       <c r="B71" t="s">
-        <v>596</v>
+        <v>653</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G71">
         <v>42</v>
       </c>
       <c r="J71" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>GlennSoine</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>597</v>
+        <v>654</v>
       </c>
       <c r="B72" t="s">
-        <v>597</v>
+        <v>654</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G72">
         <v>42</v>
       </c>
       <c r="J72" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
+        <v>r6Tiq8Yah2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
       <c r="B73" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G73">
         <v>42</v>
       </c>
       <c r="J73" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="B74" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G74">
         <v>42</v>
       </c>
       <c r="J74" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="B75" t="s">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G75">
         <v>42</v>
       </c>
       <c r="J75" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
+        <v>JamesPex</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="B76" t="s">
-        <v>601</v>
+        <v>658</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G76">
         <v>42</v>
       </c>
       <c r="J76" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="B77" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G77">
         <v>42</v>
       </c>
       <c r="J77" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>603</v>
+        <v>660</v>
       </c>
       <c r="B78" t="s">
-        <v>603</v>
+        <v>660</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G78">
         <v>42</v>
       </c>
       <c r="J78" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="B79" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G79">
         <v>42</v>
       </c>
       <c r="J79" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>恩煜</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="B80" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G80">
         <v>42</v>
       </c>
       <c r="J80" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="B81" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G81">
         <v>42</v>
       </c>
       <c r="J81" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
       <c r="B82" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G82">
         <v>42</v>
       </c>
       <c r="J82" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="B83" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>42</v>
       </c>
       <c r="J83" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>醉倾于下yqq</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="B84" t="s">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G84">
         <v>42</v>
       </c>
       <c r="J84" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
+        <v>天气不错bqr</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>610</v>
+        <v>667</v>
       </c>
       <c r="B85" t="s">
-        <v>610</v>
+        <v>667</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>48</v>
@@ -4328,1334 +4285,95 @@
       </c>
       <c r="J85" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>蓝蓝天上hkm</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>611</v>
+        <v>668</v>
       </c>
       <c r="B86" t="s">
-        <v>611</v>
+        <v>668</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G86">
         <v>42</v>
       </c>
       <c r="J86" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
+        <v>彬鉴</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>612</v>
+        <v>669</v>
       </c>
       <c r="B87" t="s">
-        <v>612</v>
+        <v>669</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G87">
         <v>42</v>
       </c>
       <c r="J87" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
+        <v>Gordontaicy</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
       <c r="B88" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G88">
         <v>42</v>
       </c>
       <c r="J88" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
+        <v>wzhao17</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>614</v>
+        <v>671</v>
       </c>
       <c r="B89" t="s">
-        <v>614</v>
+        <v>671</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G89">
         <v>42</v>
       </c>
       <c r="J89" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>615</v>
-      </c>
-      <c r="B90" t="s">
-        <v>615</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90">
-        <v>42</v>
-      </c>
-      <c r="J90" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>616</v>
-      </c>
-      <c r="B91" t="s">
-        <v>616</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91">
-        <v>42</v>
-      </c>
-      <c r="J91" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>617</v>
-      </c>
-      <c r="B92" t="s">
-        <v>617</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92">
-        <v>42</v>
-      </c>
-      <c r="J92" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>618</v>
-      </c>
-      <c r="B93" t="s">
-        <v>618</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93">
-        <v>42</v>
-      </c>
-      <c r="J93" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>619</v>
-      </c>
-      <c r="B94" t="s">
-        <v>619</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>52</v>
-      </c>
-      <c r="G94">
-        <v>42</v>
-      </c>
-      <c r="J94" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>620</v>
-      </c>
-      <c r="B95" t="s">
-        <v>620</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95">
-        <v>42</v>
-      </c>
-      <c r="J95" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>621</v>
-      </c>
-      <c r="B96" t="s">
-        <v>621</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96">
-        <v>42</v>
-      </c>
-      <c r="J96" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>622</v>
-      </c>
-      <c r="B97" t="s">
-        <v>622</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97">
-        <v>42</v>
-      </c>
-      <c r="J97" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kjybj</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>623</v>
-      </c>
-      <c r="B98" t="s">
-        <v>623</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>43</v>
-      </c>
-      <c r="G98">
-        <v>42</v>
-      </c>
-      <c r="J98" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>624</v>
-      </c>
-      <c r="B99" t="s">
-        <v>624</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>50</v>
-      </c>
-      <c r="G99">
-        <v>42</v>
-      </c>
-      <c r="J99" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>625</v>
-      </c>
-      <c r="B100" t="s">
-        <v>625</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100">
-        <v>42</v>
-      </c>
-      <c r="J100" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>626</v>
-      </c>
-      <c r="B101" t="s">
-        <v>626</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101">
-        <v>42</v>
-      </c>
-      <c r="J101" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>627</v>
-      </c>
-      <c r="B102" t="s">
-        <v>627</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102">
-        <v>42</v>
-      </c>
-      <c r="J102" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>685</v>
-      </c>
-      <c r="B103" t="s">
-        <v>628</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103">
-        <v>42</v>
-      </c>
-      <c r="J103" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
         <v>锦殿</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>629</v>
-      </c>
-      <c r="B104" t="s">
-        <v>629</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104">
-        <v>42</v>
-      </c>
-      <c r="J104" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>630</v>
-      </c>
-      <c r="B105" t="s">
-        <v>630</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
-        <v>45</v>
-      </c>
-      <c r="G105">
-        <v>42</v>
-      </c>
-      <c r="J105" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>631</v>
-      </c>
-      <c r="B106" t="s">
-        <v>631</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106">
-        <v>42</v>
-      </c>
-      <c r="J106" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>632</v>
-      </c>
-      <c r="B107" t="s">
-        <v>632</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G107">
-        <v>42</v>
-      </c>
-      <c r="J107" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>633</v>
-      </c>
-      <c r="B108" t="s">
-        <v>633</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>52</v>
-      </c>
-      <c r="G108">
-        <v>42</v>
-      </c>
-      <c r="J108" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>634</v>
-      </c>
-      <c r="B109" t="s">
-        <v>634</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>37</v>
-      </c>
-      <c r="G109">
-        <v>42</v>
-      </c>
-      <c r="J109" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>635</v>
-      </c>
-      <c r="B110" t="s">
-        <v>635</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>50</v>
-      </c>
-      <c r="G110">
-        <v>42</v>
-      </c>
-      <c r="J110" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>636</v>
-      </c>
-      <c r="B111" t="s">
-        <v>636</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111" t="s">
-        <v>28</v>
-      </c>
-      <c r="G111">
-        <v>42</v>
-      </c>
-      <c r="J111" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>637</v>
-      </c>
-      <c r="B112" t="s">
-        <v>637</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112">
-        <v>42</v>
-      </c>
-      <c r="J112" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
-        <v>638</v>
-      </c>
-      <c r="B113" t="s">
-        <v>638</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113">
-        <v>42</v>
-      </c>
-      <c r="J113" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>639</v>
-      </c>
-      <c r="B114" t="s">
-        <v>639</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114">
-        <v>42</v>
-      </c>
-      <c r="J114" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
-        <v>640</v>
-      </c>
-      <c r="B115" t="s">
-        <v>640</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>53</v>
-      </c>
-      <c r="G115">
-        <v>42</v>
-      </c>
-      <c r="J115" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
-        <v>641</v>
-      </c>
-      <c r="B116" t="s">
-        <v>641</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116">
-        <v>42</v>
-      </c>
-      <c r="J116" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
-        <v>642</v>
-      </c>
-      <c r="B117" t="s">
-        <v>642</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117">
-        <v>42</v>
-      </c>
-      <c r="J117" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
-        <v>643</v>
-      </c>
-      <c r="B118" t="s">
-        <v>643</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118">
-        <v>42</v>
-      </c>
-      <c r="J118" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>644</v>
-      </c>
-      <c r="B119" t="s">
-        <v>644</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119">
-        <v>42</v>
-      </c>
-      <c r="J119" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>645</v>
-      </c>
-      <c r="B120" t="s">
-        <v>645</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120">
-        <v>42</v>
-      </c>
-      <c r="J120" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>646</v>
-      </c>
-      <c r="B121" t="s">
-        <v>646</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121" t="s">
-        <v>39</v>
-      </c>
-      <c r="G121">
-        <v>42</v>
-      </c>
-      <c r="J121" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>645</v>
-      </c>
-      <c r="B122" t="s">
-        <v>645</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122" t="s">
-        <v>51</v>
-      </c>
-      <c r="G122">
-        <v>42</v>
-      </c>
-      <c r="J122" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>647</v>
-      </c>
-      <c r="B123" t="s">
-        <v>647</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123">
-        <v>42</v>
-      </c>
-      <c r="J123" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
-        <v>648</v>
-      </c>
-      <c r="B124" t="s">
-        <v>648</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124">
-        <v>42</v>
-      </c>
-      <c r="J124" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>649</v>
-      </c>
-      <c r="B125" t="s">
-        <v>649</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125">
-        <v>42</v>
-      </c>
-      <c r="J125" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
-        <v>682</v>
-      </c>
-      <c r="B126" t="s">
-        <v>682</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126" t="s">
-        <v>51</v>
-      </c>
-      <c r="G126">
-        <v>42</v>
-      </c>
-      <c r="J126" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>650</v>
-      </c>
-      <c r="B127" t="s">
-        <v>650</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127">
-        <v>42</v>
-      </c>
-      <c r="J127" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>651</v>
-      </c>
-      <c r="B128" t="s">
-        <v>651</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>47</v>
-      </c>
-      <c r="G128">
-        <v>42</v>
-      </c>
-      <c r="J128" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>StevenHat</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>652</v>
-      </c>
-      <c r="B129" t="s">
-        <v>652</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129">
-        <v>42</v>
-      </c>
-      <c r="J129" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>653</v>
-      </c>
-      <c r="B130" t="s">
-        <v>653</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130">
-        <v>42</v>
-      </c>
-      <c r="J130" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>654</v>
-      </c>
-      <c r="B131" t="s">
-        <v>654</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131">
-        <v>42</v>
-      </c>
-      <c r="J131" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
-        <v>655</v>
-      </c>
-      <c r="B132" t="s">
-        <v>655</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132">
-        <v>42</v>
-      </c>
-      <c r="J132" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
-        <v>656</v>
-      </c>
-      <c r="B133" t="s">
-        <v>656</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133">
-        <v>42</v>
-      </c>
-      <c r="J133" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
-        <v>657</v>
-      </c>
-      <c r="B134" t="s">
-        <v>657</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134">
-        <v>42</v>
-      </c>
-      <c r="J134" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
-        <v>658</v>
-      </c>
-      <c r="B135" t="s">
-        <v>658</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135" t="s">
-        <v>54</v>
-      </c>
-      <c r="G135">
-        <v>42</v>
-      </c>
-      <c r="J135" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>伽溢</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>659</v>
-      </c>
-      <c r="B136" t="s">
-        <v>659</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136">
-        <v>42</v>
-      </c>
-      <c r="J136" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>660</v>
-      </c>
-      <c r="B137" t="s">
-        <v>660</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137">
-        <v>42</v>
-      </c>
-      <c r="J137" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>661</v>
-      </c>
-      <c r="B138" t="s">
-        <v>661</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138">
-        <v>42</v>
-      </c>
-      <c r="J138" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>662</v>
-      </c>
-      <c r="B139" t="s">
-        <v>662</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139">
-        <v>42</v>
-      </c>
-      <c r="J139" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下ajs</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>663</v>
-      </c>
-      <c r="B140" t="s">
-        <v>663</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
-        <v>54</v>
-      </c>
-      <c r="G140">
-        <v>42</v>
-      </c>
-      <c r="J140" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>晨榆</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>664</v>
-      </c>
-      <c r="B141" t="s">
-        <v>664</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141">
-        <v>42</v>
-      </c>
-      <c r="J141" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>665</v>
-      </c>
-      <c r="B142" t="s">
-        <v>665</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
-        <v>36</v>
-      </c>
-      <c r="G142">
-        <v>42</v>
-      </c>
-      <c r="J142" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>666</v>
-      </c>
-      <c r="B143" t="s">
-        <v>666</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" t="s">
-        <v>48</v>
-      </c>
-      <c r="G143">
-        <v>42</v>
-      </c>
-      <c r="J143" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ShirleyNum</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>667</v>
-      </c>
-      <c r="B144" t="s">
-        <v>667</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144" t="s">
-        <v>48</v>
-      </c>
-      <c r="G144">
-        <v>42</v>
-      </c>
-      <c r="J144" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>668</v>
-      </c>
-      <c r="B145" t="s">
-        <v>668</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" t="s">
-        <v>52</v>
-      </c>
-      <c r="G145">
-        <v>42</v>
-      </c>
-      <c r="J145" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
-        <v>669</v>
-      </c>
-      <c r="B146" t="s">
-        <v>669</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146" t="s">
-        <v>47</v>
-      </c>
-      <c r="G146">
-        <v>42</v>
-      </c>
-      <c r="J146" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>670</v>
-      </c>
-      <c r="B147" t="s">
-        <v>670</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147">
-        <v>42</v>
-      </c>
-      <c r="J147" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>671</v>
-      </c>
-      <c r="B148" t="s">
-        <v>671</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148">
-        <v>42</v>
-      </c>
-      <c r="J148" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J89"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5663,7 +4381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B49"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -5928,7 +4646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5941,7 +4659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C253"/>
   <sheetViews>
     <sheetView topLeftCell="A230" workbookViewId="0">
@@ -7328,14 +6046,14 @@
       <c r="B253" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C24" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:C24"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/crawler/contentxls/content yy q.xlsx
+++ b/crawler/contentxls/content yy q.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet6" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="683">
   <si>
     <t>title</t>
   </si>
@@ -2118,14 +2118,6 @@
   </si>
   <si>
     <t xml:space="preserve">可以把员工也加起 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿阳集团公告称，无法支付2017年度审计费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>811上岸了，“债权人”微信公众号发的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2485,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2526,304 +2518,304 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>642</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>42</v>
       </c>
       <c r="J2" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>cwuha</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="B3" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>42</v>
       </c>
       <c r="J3" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="B4" t="s">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>42</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s">
-        <v>589</v>
+        <v>645</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>42</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>鼎盛</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>590</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>646</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>42</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>kjybj</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>645</v>
       </c>
       <c r="B7" t="s">
-        <v>591</v>
+        <v>645</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>42</v>
       </c>
       <c r="J7" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>Kamorkasor</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>647</v>
       </c>
       <c r="B8" t="s">
-        <v>592</v>
+        <v>647</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>42</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>KennethLaL</v>
+        <v>Josephideap</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>593</v>
+        <v>648</v>
       </c>
       <c r="B9" t="s">
-        <v>593</v>
+        <v>648</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>42</v>
       </c>
       <c r="J9" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
+        <v>KennethLaL</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>594</v>
+        <v>649</v>
       </c>
       <c r="B10" t="s">
-        <v>594</v>
+        <v>649</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>42</v>
       </c>
       <c r="J10" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>StevenHat</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>682</v>
       </c>
       <c r="B11" t="s">
-        <v>595</v>
+        <v>682</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>42</v>
       </c>
       <c r="J11" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>596</v>
+        <v>650</v>
       </c>
       <c r="B12" t="s">
-        <v>596</v>
+        <v>650</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>42</v>
       </c>
       <c r="J12" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="B13" t="s">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>42</v>
       </c>
       <c r="J13" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="B14" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>42</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>y1pxw7xe</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="B15" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>42</v>
       </c>
       <c r="J15" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="B16" t="s">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2836,267 +2828,267 @@
       </c>
       <c r="J16" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="B17" t="s">
-        <v>601</v>
+        <v>655</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>42</v>
       </c>
       <c r="J17" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ptlez123</v>
+        <v>cwuha</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>602</v>
+        <v>656</v>
       </c>
       <c r="B18" t="s">
-        <v>602</v>
+        <v>656</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>42</v>
       </c>
       <c r="J18" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
+        <v>发升</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>603</v>
+        <v>657</v>
       </c>
       <c r="B19" t="s">
-        <v>603</v>
+        <v>657</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>42</v>
       </c>
       <c r="J19" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>yzadd</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="B20" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G20">
         <v>42</v>
       </c>
       <c r="J20" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
       <c r="B21" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>42</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>u0uch9yl</v>
+        <v>ShirleyNum</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>606</v>
+        <v>660</v>
       </c>
       <c r="B22" t="s">
-        <v>606</v>
+        <v>660</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <v>42</v>
       </c>
       <c r="J22" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
+        <v>kal528</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="B23" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G23">
         <v>42</v>
       </c>
       <c r="J23" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
+        <v>Hacerickerymn</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>608</v>
+        <v>662</v>
       </c>
       <c r="B24" t="s">
-        <v>608</v>
+        <v>662</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>42</v>
       </c>
       <c r="J24" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
+        <v>锦殿</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>609</v>
+        <v>663</v>
       </c>
       <c r="B25" t="s">
-        <v>609</v>
+        <v>663</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>42</v>
       </c>
       <c r="J25" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
+        <v>u0uch9yl</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>664</v>
       </c>
       <c r="B26" t="s">
-        <v>610</v>
+        <v>664</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G26">
         <v>42</v>
       </c>
       <c r="J26" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>ConradTricy</v>
+        <v>hipbv</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>611</v>
+        <v>665</v>
       </c>
       <c r="B27" t="s">
-        <v>611</v>
+        <v>665</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>42</v>
       </c>
       <c r="J27" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="B28" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G28">
         <v>42</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
+        <v>rdcqx</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="B29" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3109,1271 +3101,95 @@
       </c>
       <c r="J29" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
+        <v>水梦家园1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>614</v>
+        <v>668</v>
       </c>
       <c r="B30" t="s">
-        <v>614</v>
+        <v>668</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30">
         <v>42</v>
       </c>
       <c r="J30" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>615</v>
+        <v>669</v>
       </c>
       <c r="B31" t="s">
-        <v>615</v>
+        <v>669</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G31">
         <v>42</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
+        <v>ConradTricy</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>616</v>
+        <v>670</v>
       </c>
       <c r="B32" t="s">
-        <v>616</v>
+        <v>670</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G32">
         <v>42</v>
       </c>
       <c r="J32" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Hacerickerymn</v>
+        <v>qxomc</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>617</v>
+        <v>671</v>
       </c>
       <c r="B33" t="s">
-        <v>617</v>
+        <v>671</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33">
         <v>42</v>
       </c>
       <c r="J33" t="str">
         <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>618</v>
-      </c>
-      <c r="B34" t="s">
-        <v>618</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34">
-        <v>42</v>
-      </c>
-      <c r="J34" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>619</v>
-      </c>
-      <c r="B35" t="s">
-        <v>619</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35">
-        <v>42</v>
-      </c>
-      <c r="J35" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>隐身守侯</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>620</v>
-      </c>
-      <c r="B36" t="s">
-        <v>620</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36">
-        <v>42</v>
-      </c>
-      <c r="J36" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>621</v>
-      </c>
-      <c r="B37" t="s">
-        <v>621</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>42</v>
-      </c>
-      <c r="J37" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>622</v>
-      </c>
-      <c r="B38" t="s">
-        <v>622</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38">
-        <v>42</v>
-      </c>
-      <c r="J38" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>623</v>
-      </c>
-      <c r="B39" t="s">
-        <v>623</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39">
-        <v>42</v>
-      </c>
-      <c r="J39" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Josephideap</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>624</v>
-      </c>
-      <c r="B40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40">
-        <v>42</v>
-      </c>
-      <c r="J40" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>625</v>
-      </c>
-      <c r="B41" t="s">
-        <v>625</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41">
-        <v>42</v>
-      </c>
-      <c r="J41" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Charleswab</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>626</v>
-      </c>
-      <c r="B42" t="s">
-        <v>626</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42">
-        <v>42</v>
-      </c>
-      <c r="J42" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>627</v>
-      </c>
-      <c r="B43" t="s">
-        <v>627</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43">
-        <v>42</v>
-      </c>
-      <c r="J43" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>RichardTek</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>684</v>
-      </c>
-      <c r="B44" t="s">
-        <v>628</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44">
-        <v>42</v>
-      </c>
-      <c r="J44" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>629</v>
-      </c>
-      <c r="B45" t="s">
-        <v>629</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45">
-        <v>42</v>
-      </c>
-      <c r="J45" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>630</v>
-      </c>
-      <c r="B46" t="s">
-        <v>630</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46">
-        <v>42</v>
-      </c>
-      <c r="J46" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>631</v>
-      </c>
-      <c r="B47" t="s">
-        <v>631</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47">
-        <v>42</v>
-      </c>
-      <c r="J47" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wbklk</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>632</v>
-      </c>
-      <c r="B48" t="s">
-        <v>632</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48">
-        <v>42</v>
-      </c>
-      <c r="J48" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>冬如</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>633</v>
-      </c>
-      <c r="B49" t="s">
-        <v>633</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49">
-        <v>42</v>
-      </c>
-      <c r="J49" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>els164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>634</v>
-      </c>
-      <c r="B50" t="s">
-        <v>634</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50">
-        <v>42</v>
-      </c>
-      <c r="J50" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>635</v>
-      </c>
-      <c r="B51" t="s">
-        <v>635</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51">
-        <v>42</v>
-      </c>
-      <c r="J51" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>upr200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>636</v>
-      </c>
-      <c r="B52" t="s">
-        <v>636</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52">
-        <v>42</v>
-      </c>
-      <c r="J52" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>637</v>
-      </c>
-      <c r="B53" t="s">
-        <v>637</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53">
-        <v>42</v>
-      </c>
-      <c r="J53" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>jheic</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>638</v>
-      </c>
-      <c r="B54" t="s">
-        <v>638</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54">
-        <v>42</v>
-      </c>
-      <c r="J54" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>p0Tiv9Yam8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>639</v>
-      </c>
-      <c r="B55" t="s">
-        <v>639</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55">
-        <v>42</v>
-      </c>
-      <c r="J55" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>q4ikh5mv</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>640</v>
-      </c>
-      <c r="B56" t="s">
-        <v>640</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56">
-        <v>42</v>
-      </c>
-      <c r="J56" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Kamorkasor</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>641</v>
-      </c>
-      <c r="B57" t="s">
-        <v>641</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57">
-        <v>42</v>
-      </c>
-      <c r="J57" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>642</v>
-      </c>
-      <c r="B58" t="s">
-        <v>642</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58">
-        <v>42</v>
-      </c>
-      <c r="J58" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>643</v>
-      </c>
-      <c r="B59" t="s">
-        <v>643</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59">
-        <v>42</v>
-      </c>
-      <c r="J59" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Abrahamerymn</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>644</v>
-      </c>
-      <c r="B60" t="s">
-        <v>644</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60">
-        <v>42</v>
-      </c>
-      <c r="J60" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hipbv</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>645</v>
-      </c>
-      <c r="B61" t="s">
-        <v>645</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61">
-        <v>42</v>
-      </c>
-      <c r="J61" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>鼎盛</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>646</v>
-      </c>
-      <c r="B62" t="s">
-        <v>646</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62">
-        <v>42</v>
-      </c>
-      <c r="J62" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>i8Tix8Yah8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>645</v>
-      </c>
-      <c r="B63" t="s">
-        <v>645</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>51</v>
-      </c>
-      <c r="G63">
-        <v>42</v>
-      </c>
-      <c r="J63" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JameseNrof</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>647</v>
-      </c>
-      <c r="B64" t="s">
-        <v>647</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64">
-        <v>42</v>
-      </c>
-      <c r="J64" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>648</v>
-      </c>
-      <c r="B65" t="s">
-        <v>648</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65">
-        <v>42</v>
-      </c>
-      <c r="J65" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
         <v>kal528</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>649</v>
-      </c>
-      <c r="B66" t="s">
-        <v>649</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66">
-        <v>42</v>
-      </c>
-      <c r="J66" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>yzadd</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>682</v>
-      </c>
-      <c r="B67" t="s">
-        <v>682</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>51</v>
-      </c>
-      <c r="G67">
-        <v>42</v>
-      </c>
-      <c r="J67" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>650</v>
-      </c>
-      <c r="B68" t="s">
-        <v>650</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68">
-        <v>42</v>
-      </c>
-      <c r="J68" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>651</v>
-      </c>
-      <c r="B69" t="s">
-        <v>651</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69">
-        <v>42</v>
-      </c>
-      <c r="J69" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>hnvkg</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>652</v>
-      </c>
-      <c r="B70" t="s">
-        <v>652</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70">
-        <v>42</v>
-      </c>
-      <c r="J70" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>653</v>
-      </c>
-      <c r="B71" t="s">
-        <v>653</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71">
-        <v>42</v>
-      </c>
-      <c r="J71" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>GlennSoine</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>654</v>
-      </c>
-      <c r="B72" t="s">
-        <v>654</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72">
-        <v>42</v>
-      </c>
-      <c r="J72" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>r6Tiq8Yah2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>655</v>
-      </c>
-      <c r="B73" t="s">
-        <v>655</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73">
-        <v>42</v>
-      </c>
-      <c r="J73" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>水梦家园1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>656</v>
-      </c>
-      <c r="B74" t="s">
-        <v>656</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74">
-        <v>42</v>
-      </c>
-      <c r="J74" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>发升</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>657</v>
-      </c>
-      <c r="B75" t="s">
-        <v>657</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75">
-        <v>42</v>
-      </c>
-      <c r="J75" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>JamesPex</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>658</v>
-      </c>
-      <c r="B76" t="s">
-        <v>658</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>54</v>
-      </c>
-      <c r="G76">
-        <v>42</v>
-      </c>
-      <c r="J76" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>rdcqx</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>659</v>
-      </c>
-      <c r="B77" t="s">
-        <v>659</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77">
-        <v>42</v>
-      </c>
-      <c r="J77" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>qxomc</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>660</v>
-      </c>
-      <c r="B78" t="s">
-        <v>660</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78">
-        <v>42</v>
-      </c>
-      <c r="J78" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>661</v>
-      </c>
-      <c r="B79" t="s">
-        <v>661</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79">
-        <v>42</v>
-      </c>
-      <c r="J79" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>恩煜</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>662</v>
-      </c>
-      <c r="B80" t="s">
-        <v>662</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80">
-        <v>42</v>
-      </c>
-      <c r="J80" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>kal528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>663</v>
-      </c>
-      <c r="B81" t="s">
-        <v>663</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>54</v>
-      </c>
-      <c r="G81">
-        <v>42</v>
-      </c>
-      <c r="J81" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>664</v>
-      </c>
-      <c r="B82" t="s">
-        <v>664</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82">
-        <v>42</v>
-      </c>
-      <c r="J82" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>y1pxw7xe</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>665</v>
-      </c>
-      <c r="B83" t="s">
-        <v>665</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83">
-        <v>42</v>
-      </c>
-      <c r="J83" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>醉倾于下yqq</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>666</v>
-      </c>
-      <c r="B84" t="s">
-        <v>666</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84">
-        <v>42</v>
-      </c>
-      <c r="J84" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>天气不错bqr</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>667</v>
-      </c>
-      <c r="B85" t="s">
-        <v>667</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85">
-        <v>42</v>
-      </c>
-      <c r="J85" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>蓝蓝天上hkm</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>668</v>
-      </c>
-      <c r="B86" t="s">
-        <v>668</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>52</v>
-      </c>
-      <c r="G86">
-        <v>42</v>
-      </c>
-      <c r="J86" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>彬鉴</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>669</v>
-      </c>
-      <c r="B87" t="s">
-        <v>669</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87">
-        <v>42</v>
-      </c>
-      <c r="J87" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>Gordontaicy</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>670</v>
-      </c>
-      <c r="B88" t="s">
-        <v>670</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88">
-        <v>42</v>
-      </c>
-      <c r="J88" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>wzhao17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>671</v>
-      </c>
-      <c r="B89" t="s">
-        <v>671</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89">
-        <v>42</v>
-      </c>
-      <c r="J89" t="str">
-        <f ca="1">OFFSET(账号!$B$1,RANDBETWEEN(1,48),0)</f>
-        <v>锦殿</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J89"/>
+  <autoFilter ref="A1:J33"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
